--- a/1. Input time series sequences/Internal markers patient 111/pred_par.xlsx
+++ b/1. Input time series sequences/Internal markers patient 111/pred_par.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1864E0D-F868-454F-9A14-A09E9C9555CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0750C577-84B3-4615-A3A4-066759D1C18E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
